--- a/data/raw/Asilo2020.xlsx
+++ b/data/raw/Asilo2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\Master\Visualización\Refugees-A-deep-analysis-of-refugee-crisis-data\Refugees-A-deep-analysis-of-refugee-crisis-data\data\raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70861294-C384-4160-BE97-0BD83B9BA0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="540" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice de tablas" sheetId="5" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="222">
   <si>
     <t>Total</t>
   </si>
@@ -456,42 +462,9 @@
     <t>Andalucía </t>
   </si>
   <si>
-    <t>Almería</t>
-  </si>
-  <si>
-    <t>Cádiz</t>
-  </si>
-  <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>Jaén</t>
-  </si>
-  <si>
-    <t>Málaga</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
     <t>Aragón</t>
   </si>
   <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Teruel</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
     <t>Asturias, Principado de</t>
   </si>
   <si>
@@ -504,111 +477,27 @@
     <t>Palmas, Las</t>
   </si>
   <si>
-    <t>Santa Cruz de Tenerife</t>
-  </si>
-  <si>
     <t>Cantabria</t>
   </si>
   <si>
     <t>Castilla y León</t>
   </si>
   <si>
-    <t>Ávila</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>León</t>
-  </si>
-  <si>
-    <t>Palencia</t>
-  </si>
-  <si>
-    <t>Salamanca</t>
-  </si>
-  <si>
-    <t>Segovia</t>
-  </si>
-  <si>
-    <t>Soria</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zamora</t>
-  </si>
-  <si>
     <t>Castilla-La Mancha</t>
   </si>
   <si>
-    <t>Albacete</t>
-  </si>
-  <si>
-    <t>Ciudad Real</t>
-  </si>
-  <si>
-    <t>Cuenca</t>
-  </si>
-  <si>
-    <t>Guadalajara</t>
-  </si>
-  <si>
-    <t>Toledo</t>
-  </si>
-  <si>
     <t>Cataluña</t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Lleida</t>
-  </si>
-  <si>
-    <t>Tarragona</t>
-  </si>
-  <si>
     <t>Comunitat Valenciana</t>
   </si>
   <si>
-    <t>Alicante/Alacant</t>
-  </si>
-  <si>
-    <t>Castellón/Castelló</t>
-  </si>
-  <si>
-    <t>Valencia/València</t>
-  </si>
-  <si>
     <t>Extremadura</t>
   </si>
   <si>
-    <t>Badajoz</t>
-  </si>
-  <si>
-    <t>Cáceres</t>
-  </si>
-  <si>
     <t>Galicia</t>
   </si>
   <si>
-    <t>Coruña, A</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Ourense</t>
-  </si>
-  <si>
-    <t>Pontevedra</t>
-  </si>
-  <si>
     <t>Madrid, Comunidad de</t>
   </si>
   <si>
@@ -619,15 +508,6 @@
   </si>
   <si>
     <t>País Vasco</t>
-  </si>
-  <si>
-    <t>Araba/Álava</t>
-  </si>
-  <si>
-    <t>Bizkaia</t>
-  </si>
-  <si>
-    <t>Gipuzkoa</t>
   </si>
   <si>
     <t>Rioja, La</t>
@@ -950,7 +830,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -1165,7 +1045,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5">
       <alignment horizontal="left" vertical="center"/>
@@ -1185,7 +1065,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1199,20 +1078,13 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1236,10 +1108,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1248,38 +1123,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="01 Numero Gris Anuario" xfId="8"/>
-    <cellStyle name="02 Titulo Azul Anuario" xfId="7"/>
-    <cellStyle name="03 Cabeceras Anuario" xfId="2"/>
-    <cellStyle name="04 Celdas Texto Anuario" xfId="5"/>
-    <cellStyle name="05 Celdas Cifras Anuario" xfId="6"/>
-    <cellStyle name="06 Total Anuario" xfId="3"/>
-    <cellStyle name="07 Total Cifras Anuario" xfId="4"/>
-    <cellStyle name="08 Notas Tablas" xfId="1"/>
-    <cellStyle name="09 INDICE DE TABLAS" xfId="10"/>
+    <cellStyle name="01 Numero Gris Anuario" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="02 Titulo Azul Anuario" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="03 Cabeceras Anuario" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="04 Celdas Texto Anuario" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="05 Celdas Cifras Anuario" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="06 Total Anuario" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="07 Total Cifras Anuario" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="08 Notas Tablas" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="09 INDICE DE TABLAS" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hipervínculo" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1629,9 +1501,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:P45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:N11"/>
@@ -1642,767 +1514,218 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="7"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="15" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B11" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2419,123 +1742,123 @@
     <mergeCell ref="B6:N6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" location="'TABLA 2-1'!A1" display="SOLICITUDES DE PROTECCIÓN INTERNACIONAL PRESENTADAS POR PAÍS DE ORIGEN Y SEXO"/>
-    <hyperlink ref="C3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="D3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="E3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="F3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="G3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="H3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="I3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="J3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="K3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="L3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="M3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="N3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1"/>
-    <hyperlink ref="B4" location="'TABLA 2-2'!A1" display="SOLICITUDES DE PROTECCIÓN INTERNACIONAL PRESENTADAS POR PAÍS DE ORIGEN, LUGAR DE PRESENTACIÓN DE LA PETICIÓN Y SEXO"/>
-    <hyperlink ref="C4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="D4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="E4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="F4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="G4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="H4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="I4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="J4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="K4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="L4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="M4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="N4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1"/>
-    <hyperlink ref="B5" location="'TABLA 2-3'!A1" display="SOLICITUDES DE PROTECCIÓN INTERNACIONAL PRESENTADAS POR COMUNIDAD AUTÓNOMA, PROVINCIA Y SEXO"/>
-    <hyperlink ref="C5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="D5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="E5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="F5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="G5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="H5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="I5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="J5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="K5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="L5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="M5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="N5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1"/>
-    <hyperlink ref="B6" location="'TABLA 2-4'!A1" display="SOLICITUDES DE RECONOCIMIENTO DEL ESTATUTO DE APÁTRIDA PRESENTADAS POR PAÍS DE ORIGEN Y SEXO"/>
-    <hyperlink ref="C6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="D6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="E6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="F6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="G6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="H6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="I6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="J6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="K6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="L6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="M6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="N6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1"/>
-    <hyperlink ref="B7" location="'TABLA 2-5'!A1" display="RESOLUCIONES SOBRE SOLICITUDES DE PROTECCIÓN INTERNACIONAL (ADMITIDAS, NO ADMITIDAS Y DENEGADAS) POR PAÍS DE ORIGEN Y SEXO"/>
-    <hyperlink ref="C7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="D7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="E7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="F7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="G7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="H7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="I7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="J7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="K7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="L7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="M7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="N7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1"/>
-    <hyperlink ref="B8" location="'TABLA 2-6'!A1" display="RESOLUCIONES FIRMADAS A PROPUESTA DE LA COMISIÓN INTERMINISTERIAL DE ASILO Y REFUGIO POR PAÍS DE ORIGEN, CRITERIO DE RESOLUCIÓN Y SEXO"/>
-    <hyperlink ref="C8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="D8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="E8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="F8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="G8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="H8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="I8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="J8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="K8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="L8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="M8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="N8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1"/>
-    <hyperlink ref="B9" location="'TABLA 2-7'!A1" display="RESOLUCIONES SOBRE SOLICITUDES DE RECONOCIMIENTO DEL ESTATUTO DE APÁTRIDA POR PAÍS DE ORIGEN, CRITERIO DE RESOLUCIÓN Y SEXO"/>
-    <hyperlink ref="C9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="D9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="E9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="F9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="G9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="H9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="I9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="J9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="K9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="L9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="M9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="N9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1"/>
-    <hyperlink ref="B10" location="'TABLA 2-8'!A1" display="PROTECCIÓN INTERNACIONAL. PETICIONES RECIBIDAS EN APLICACIÓN DEL REGLAMENTO DE DUBLÍN"/>
-    <hyperlink ref="C10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="D10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="E10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="F10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="G10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="H10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="I10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="J10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="K10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="L10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="M10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="N10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1"/>
-    <hyperlink ref="B11" location="'TABLA 2-9'!A1" display="PROTECCIÓN INTERNACIONAL. PETICIONES ENVIADAS EN APLICACIÓN DEL REGLAMENTO DE DUBLÍN"/>
-    <hyperlink ref="C11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="D11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="E11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="F11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="G11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="H11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="I11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="J11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="K11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="L11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="M11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
-    <hyperlink ref="N11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1"/>
+    <hyperlink ref="B3" location="'TABLA 2-1'!A1" display="SOLICITUDES DE PROTECCIÓN INTERNACIONAL PRESENTADAS POR PAÍS DE ORIGEN Y SEXO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N3" location="'TABLA 2-1'!A1" display="'TABLA 2-1'!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B4" location="'TABLA 2-2'!A1" display="SOLICITUDES DE PROTECCIÓN INTERNACIONAL PRESENTADAS POR PAÍS DE ORIGEN, LUGAR DE PRESENTACIÓN DE LA PETICIÓN Y SEXO" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N4" location="'TABLA 2-2'!A1" display="'TABLA 2-2'!A1" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B5" location="'TABLA 2-3'!A1" display="SOLICITUDES DE PROTECCIÓN INTERNACIONAL PRESENTADAS POR COMUNIDAD AUTÓNOMA, PROVINCIA Y SEXO" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N5" location="'TABLA 2-3'!A1" display="'TABLA 2-3'!A1" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B6" location="'TABLA 2-4'!A1" display="SOLICITUDES DE RECONOCIMIENTO DEL ESTATUTO DE APÁTRIDA PRESENTADAS POR PAÍS DE ORIGEN Y SEXO" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N6" location="'TABLA 2-4'!A1" display="'TABLA 2-4'!A1" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B7" location="'TABLA 2-5'!A1" display="RESOLUCIONES SOBRE SOLICITUDES DE PROTECCIÓN INTERNACIONAL (ADMITIDAS, NO ADMITIDAS Y DENEGADAS) POR PAÍS DE ORIGEN Y SEXO" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N7" location="'TABLA 2-5'!A1" display="'TABLA 2-5'!A1" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B8" location="'TABLA 2-6'!A1" display="RESOLUCIONES FIRMADAS A PROPUESTA DE LA COMISIÓN INTERMINISTERIAL DE ASILO Y REFUGIO POR PAÍS DE ORIGEN, CRITERIO DE RESOLUCIÓN Y SEXO" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="K8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N8" location="'TABLA 2-6'!A1" display="'TABLA 2-6'!A1" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B9" location="'TABLA 2-7'!A1" display="RESOLUCIONES SOBRE SOLICITUDES DE RECONOCIMIENTO DEL ESTATUTO DE APÁTRIDA POR PAÍS DE ORIGEN, CRITERIO DE RESOLUCIÓN Y SEXO" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="D9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="K9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="L9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="M9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N9" location="'TABLA 2-7'!A1" display="'TABLA 2-7'!A1" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B10" location="'TABLA 2-8'!A1" display="PROTECCIÓN INTERNACIONAL. PETICIONES RECIBIDAS EN APLICACIÓN DEL REGLAMENTO DE DUBLÍN" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="H10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="K10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="L10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="M10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="N10" location="'TABLA 2-8'!A1" display="'TABLA 2-8'!A1" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B11" location="'TABLA 2-9'!A1" display="PROTECCIÓN INTERNACIONAL. PETICIONES ENVIADAS EN APLICACIÓN DEL REGLAMENTO DE DUBLÍN" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="H11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="K11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="L11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="M11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="N11" location="'TABLA 2-9'!A1" display="'TABLA 2-9'!A1" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2543,11 +1866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja10" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Hoja10"/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B29"/>
     </sheetView>
   </sheetViews>
@@ -2557,16 +1880,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>261</v>
+      <c r="A1" s="8" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2579,7 +1902,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4">
         <v>22</v>
@@ -2587,7 +1910,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B5" s="4">
         <v>13</v>
@@ -2595,7 +1918,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -2603,7 +1926,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -2611,7 +1934,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -2619,7 +1942,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4">
         <v>4</v>
@@ -2627,7 +1950,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="B10" s="4">
         <v>16</v>
@@ -2635,7 +1958,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B11" s="4">
         <v>7</v>
@@ -2651,7 +1974,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B13" s="4">
         <v>17</v>
@@ -2659,7 +1982,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B14" s="4">
         <v>9</v>
@@ -2667,7 +1990,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2675,7 +1998,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B16" s="4">
         <v>396</v>
@@ -2683,7 +2006,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
@@ -2691,7 +2014,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
@@ -2699,7 +2022,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -2707,7 +2030,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -2715,7 +2038,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2723,7 +2046,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B22" s="4">
         <v>16</v>
@@ -2731,7 +2054,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
@@ -2739,7 +2062,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -2747,7 +2070,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B25" s="4">
         <v>3</v>
@@ -2755,7 +2078,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="B26" s="4">
         <v>18</v>
@@ -2763,7 +2086,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
@@ -2779,7 +2102,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B29" s="4">
         <v>16</v>
@@ -2794,21 +2117,21 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A32" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A32" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A87" workbookViewId="0">
@@ -2822,7 +2145,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2850,7 +2173,7 @@
       <c r="C3" s="4">
         <v>7</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>34</v>
       </c>
     </row>
@@ -2864,7 +2187,7 @@
       <c r="C4" s="4">
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>50</v>
       </c>
     </row>
@@ -2878,7 +2201,7 @@
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2892,7 +2215,7 @@
       <c r="C6" s="4">
         <v>11</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>24</v>
       </c>
     </row>
@@ -2906,7 +2229,7 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>7</v>
       </c>
     </row>
@@ -2920,7 +2243,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2934,7 +2257,7 @@
       <c r="C9" s="4">
         <v>161</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>773</v>
       </c>
     </row>
@@ -2948,7 +2271,7 @@
       <c r="C10" s="4">
         <v>190</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>411</v>
       </c>
     </row>
@@ -2962,7 +2285,7 @@
       <c r="C11" s="4">
         <v>31</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>68</v>
       </c>
     </row>
@@ -2976,7 +2299,7 @@
       <c r="C12" s="4">
         <v>6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>15</v>
       </c>
     </row>
@@ -2990,7 +2313,7 @@
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3004,7 +2327,7 @@
       <c r="C14" s="4">
         <v>6</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>180</v>
       </c>
     </row>
@@ -3018,7 +2341,7 @@
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3032,7 +2355,7 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3046,7 +2369,7 @@
       <c r="C17" s="4">
         <v>22</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>42</v>
       </c>
     </row>
@@ -3060,7 +2383,7 @@
       <c r="C18" s="4">
         <v>65</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>122</v>
       </c>
     </row>
@@ -3074,7 +2397,7 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3088,7 +2411,7 @@
       <c r="C20" s="4">
         <v>412</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>802</v>
       </c>
     </row>
@@ -3102,7 +2425,7 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>47</v>
       </c>
     </row>
@@ -3116,7 +2439,7 @@
       <c r="C22" s="4">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3130,7 +2453,7 @@
       <c r="C23" s="4">
         <v>21</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>67</v>
       </c>
     </row>
@@ -3144,7 +2467,7 @@
       <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3158,7 +2481,7 @@
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3172,7 +2495,7 @@
       <c r="C26" s="4">
         <v>97</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>189</v>
       </c>
     </row>
@@ -3186,7 +2509,7 @@
       <c r="C27" s="4">
         <v>55</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>77</v>
       </c>
     </row>
@@ -3200,7 +2523,7 @@
       <c r="C28" s="4">
         <v>13635</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>27586</v>
       </c>
     </row>
@@ -3214,7 +2537,7 @@
       <c r="C29" s="4">
         <v>2</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3228,7 +2551,7 @@
       <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3242,7 +2565,7 @@
       <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3256,7 +2579,7 @@
       <c r="C32" s="4">
         <v>48</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>244</v>
       </c>
     </row>
@@ -3270,7 +2593,7 @@
       <c r="C33" s="4">
         <v>14</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>35</v>
       </c>
     </row>
@@ -3284,7 +2607,7 @@
       <c r="C34" s="4">
         <v>671</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>1531</v>
       </c>
     </row>
@@ -3298,7 +2621,7 @@
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3312,7 +2635,7 @@
       <c r="C36" s="4">
         <v>104</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>271</v>
       </c>
     </row>
@@ -3326,7 +2649,7 @@
       <c r="C37" s="4">
         <v>3</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>164</v>
       </c>
     </row>
@@ -3340,7 +2663,7 @@
       <c r="C38" s="4">
         <v>1232</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>2521</v>
       </c>
     </row>
@@ -3354,7 +2677,7 @@
       <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3368,7 +2691,7 @@
       <c r="C40" s="4">
         <v>4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3382,7 +2705,7 @@
       <c r="C41" s="4">
         <v>27</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>51</v>
       </c>
     </row>
@@ -3396,7 +2719,7 @@
       <c r="C42" s="4">
         <v>0</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3410,7 +2733,7 @@
       <c r="C43" s="4">
         <v>2</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3424,7 +2747,7 @@
       <c r="C44" s="4">
         <v>0</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3438,7 +2761,7 @@
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3452,7 +2775,7 @@
       <c r="C46" s="4">
         <v>20</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>301</v>
       </c>
     </row>
@@ -3466,7 +2789,7 @@
       <c r="C47" s="4">
         <v>253</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>557</v>
       </c>
     </row>
@@ -3480,7 +2803,7 @@
       <c r="C48" s="4">
         <v>14</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>281</v>
       </c>
     </row>
@@ -3494,7 +2817,7 @@
       <c r="C49" s="4">
         <v>180</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>463</v>
       </c>
     </row>
@@ -3508,7 +2831,7 @@
       <c r="C50" s="4">
         <v>28</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>376</v>
       </c>
     </row>
@@ -3522,7 +2845,7 @@
       <c r="C51" s="4">
         <v>3</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>23</v>
       </c>
     </row>
@@ -3536,7 +2859,7 @@
       <c r="C52" s="4">
         <v>19</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>37</v>
       </c>
     </row>
@@ -3550,7 +2873,7 @@
       <c r="C53" s="4">
         <v>20</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>36</v>
       </c>
     </row>
@@ -3564,7 +2887,7 @@
       <c r="C54" s="4">
         <v>2594</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>5536</v>
       </c>
     </row>
@@ -3578,7 +2901,7 @@
       <c r="C55" s="4">
         <v>10</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>31</v>
       </c>
     </row>
@@ -3592,7 +2915,7 @@
       <c r="C56" s="4">
         <v>9</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>31</v>
       </c>
     </row>
@@ -3606,7 +2929,7 @@
       <c r="C57" s="4">
         <v>17</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>49</v>
       </c>
     </row>
@@ -3620,7 +2943,7 @@
       <c r="C58" s="4">
         <v>2</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3634,7 +2957,7 @@
       <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3648,7 +2971,7 @@
       <c r="C60" s="4">
         <v>1</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3662,7 +2985,7 @@
       <c r="C61" s="4">
         <v>2</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>7</v>
       </c>
     </row>
@@ -3676,7 +2999,7 @@
       <c r="C62" s="4">
         <v>8</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>24</v>
       </c>
     </row>
@@ -3690,7 +3013,7 @@
       <c r="C63" s="4">
         <v>5</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>6</v>
       </c>
     </row>
@@ -3704,7 +3027,7 @@
       <c r="C64" s="4">
         <v>0</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3718,7 +3041,7 @@
       <c r="C65" s="4">
         <v>0</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3732,7 +3055,7 @@
       <c r="C66" s="4">
         <v>16</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>37</v>
       </c>
     </row>
@@ -3746,7 +3069,7 @@
       <c r="C67" s="4">
         <v>1</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>6</v>
       </c>
     </row>
@@ -3760,7 +3083,7 @@
       <c r="C68" s="4">
         <v>6</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>23</v>
       </c>
     </row>
@@ -3774,7 +3097,7 @@
       <c r="C69" s="4">
         <v>0</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3788,7 +3111,7 @@
       <c r="C70" s="4">
         <v>10</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>1537</v>
       </c>
     </row>
@@ -3802,7 +3125,7 @@
       <c r="C71" s="4">
         <v>314</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>1110</v>
       </c>
     </row>
@@ -3816,7 +3139,7 @@
       <c r="C72" s="4">
         <v>6</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>42</v>
       </c>
     </row>
@@ -3830,7 +3153,7 @@
       <c r="C73" s="4">
         <v>44</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>111</v>
       </c>
     </row>
@@ -3844,7 +3167,7 @@
       <c r="C74" s="4">
         <v>11</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>31</v>
       </c>
     </row>
@@ -3858,7 +3181,7 @@
       <c r="C75" s="4">
         <v>7</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>8</v>
       </c>
     </row>
@@ -3872,7 +3195,7 @@
       <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3886,7 +3209,7 @@
       <c r="C77" s="4">
         <v>1</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>1</v>
       </c>
     </row>
@@ -3900,7 +3223,7 @@
       <c r="C78" s="4">
         <v>0</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3914,7 +3237,7 @@
       <c r="C79" s="4">
         <v>1574</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>3749</v>
       </c>
     </row>
@@ -3928,7 +3251,7 @@
       <c r="C80" s="4">
         <v>0</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>5</v>
       </c>
     </row>
@@ -3942,7 +3265,7 @@
       <c r="C81" s="4">
         <v>78</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>278</v>
       </c>
     </row>
@@ -3956,7 +3279,7 @@
       <c r="C82" s="4">
         <v>3</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>10</v>
       </c>
     </row>
@@ -3970,7 +3293,7 @@
       <c r="C83" s="4">
         <v>22</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>822</v>
       </c>
     </row>
@@ -3984,7 +3307,7 @@
       <c r="C84" s="4">
         <v>44</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>171</v>
       </c>
     </row>
@@ -3998,7 +3321,7 @@
       <c r="C85" s="4">
         <v>14</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>48</v>
       </c>
     </row>
@@ -4012,7 +3335,7 @@
       <c r="C86" s="4">
         <v>162</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>367</v>
       </c>
     </row>
@@ -4026,7 +3349,7 @@
       <c r="C87" s="4">
         <v>2691</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>5160</v>
       </c>
     </row>
@@ -4040,7 +3363,7 @@
       <c r="C88" s="4">
         <v>4</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>8</v>
       </c>
     </row>
@@ -4054,7 +3377,7 @@
       <c r="C89" s="4">
         <v>20</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>36</v>
       </c>
     </row>
@@ -4068,7 +3391,7 @@
       <c r="C90" s="4">
         <v>45</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>81</v>
       </c>
     </row>
@@ -4082,7 +3405,7 @@
       <c r="C91" s="4">
         <v>0</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4096,7 +3419,7 @@
       <c r="C92" s="4">
         <v>205</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>458</v>
       </c>
     </row>
@@ -4110,7 +3433,7 @@
       <c r="C93" s="4">
         <v>26</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>727</v>
       </c>
     </row>
@@ -4124,7 +3447,7 @@
       <c r="C94" s="4">
         <v>4</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>9</v>
       </c>
     </row>
@@ -4138,7 +3461,7 @@
       <c r="C95" s="4">
         <v>2</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>24</v>
       </c>
     </row>
@@ -4152,7 +3475,7 @@
       <c r="C96" s="4">
         <v>170</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>419</v>
       </c>
     </row>
@@ -4166,7 +3489,7 @@
       <c r="C97" s="4">
         <v>19</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>60</v>
       </c>
     </row>
@@ -4180,7 +3503,7 @@
       <c r="C98" s="4">
         <v>0</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>3</v>
       </c>
     </row>
@@ -4194,7 +3517,7 @@
       <c r="C99" s="4">
         <v>6</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>20</v>
       </c>
     </row>
@@ -4208,7 +3531,7 @@
       <c r="C100" s="4">
         <v>1</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4222,7 +3545,7 @@
       <c r="C101" s="4">
         <v>1</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4236,7 +3559,7 @@
       <c r="C102" s="4">
         <v>0</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4250,7 +3573,7 @@
       <c r="C103" s="4">
         <v>0</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>5</v>
       </c>
     </row>
@@ -4264,7 +3587,7 @@
       <c r="C104" s="4">
         <v>3</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>7</v>
       </c>
     </row>
@@ -4278,7 +3601,7 @@
       <c r="C105" s="4">
         <v>31</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>357</v>
       </c>
     </row>
@@ -4292,7 +3615,7 @@
       <c r="C106" s="4">
         <v>19</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>114</v>
       </c>
     </row>
@@ -4306,7 +3629,7 @@
       <c r="C107" s="4">
         <v>542</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="9">
         <v>1120</v>
       </c>
     </row>
@@ -4320,7 +3643,7 @@
       <c r="C108" s="4">
         <v>2</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="9">
         <v>4</v>
       </c>
     </row>
@@ -4334,7 +3657,7 @@
       <c r="C109" s="4">
         <v>74</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="9">
         <v>157</v>
       </c>
     </row>
@@ -4348,7 +3671,7 @@
       <c r="C110" s="4">
         <v>5</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="9">
         <v>9</v>
       </c>
     </row>
@@ -4362,7 +3685,7 @@
       <c r="C111" s="4">
         <v>15469</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="9">
         <v>28375</v>
       </c>
     </row>
@@ -4376,7 +3699,7 @@
       <c r="C112" s="4">
         <v>9</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="9">
         <v>23</v>
       </c>
     </row>
@@ -4390,7 +3713,7 @@
       <c r="C113" s="4">
         <v>29</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>146</v>
       </c>
     </row>
@@ -4409,21 +3732,21 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A116" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A116" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja3" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
@@ -4436,36 +3759,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="21"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="6" t="s">
         <v>124</v>
       </c>
@@ -4490,7 +3813,7 @@
       <c r="I3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="21"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -4520,7 +3843,7 @@
       <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>34</v>
       </c>
     </row>
@@ -4552,7 +3875,7 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <v>50</v>
       </c>
     </row>
@@ -4584,7 +3907,7 @@
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4616,7 +3939,7 @@
       <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>24</v>
       </c>
     </row>
@@ -4648,7 +3971,7 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>7</v>
       </c>
     </row>
@@ -4680,7 +4003,7 @@
       <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4712,7 +4035,7 @@
       <c r="I10" s="4">
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>773</v>
       </c>
     </row>
@@ -4744,7 +4067,7 @@
       <c r="I11" s="4">
         <v>0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>411</v>
       </c>
     </row>
@@ -4776,7 +4099,7 @@
       <c r="I12" s="4">
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>68</v>
       </c>
     </row>
@@ -4808,7 +4131,7 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <v>15</v>
       </c>
     </row>
@@ -4840,7 +4163,7 @@
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>1</v>
       </c>
     </row>
@@ -4872,7 +4195,7 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>180</v>
       </c>
     </row>
@@ -4904,7 +4227,7 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>2</v>
       </c>
     </row>
@@ -4936,7 +4259,7 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="9">
         <v>5</v>
       </c>
     </row>
@@ -4968,7 +4291,7 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>42</v>
       </c>
     </row>
@@ -5000,7 +4323,7 @@
       <c r="I19" s="4">
         <v>0</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="9">
         <v>122</v>
       </c>
     </row>
@@ -5032,7 +4355,7 @@
       <c r="I20" s="4">
         <v>0</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5064,7 +4387,7 @@
       <c r="I21" s="4">
         <v>0</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>802</v>
       </c>
     </row>
@@ -5096,7 +4419,7 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>47</v>
       </c>
     </row>
@@ -5128,7 +4451,7 @@
       <c r="I23" s="4">
         <v>0</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5160,7 +4483,7 @@
       <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>67</v>
       </c>
     </row>
@@ -5192,7 +4515,7 @@
       <c r="I25" s="4">
         <v>0</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="9">
         <v>7</v>
       </c>
     </row>
@@ -5224,7 +4547,7 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>3</v>
       </c>
     </row>
@@ -5256,7 +4579,7 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="9">
         <v>189</v>
       </c>
     </row>
@@ -5288,7 +4611,7 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>77</v>
       </c>
     </row>
@@ -5320,7 +4643,7 @@
       <c r="I29" s="4">
         <v>0</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="9">
         <v>27586</v>
       </c>
     </row>
@@ -5352,7 +4675,7 @@
       <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>3</v>
       </c>
     </row>
@@ -5384,7 +4707,7 @@
       <c r="I31" s="4">
         <v>0</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="9">
         <v>7</v>
       </c>
     </row>
@@ -5416,7 +4739,7 @@
       <c r="I32" s="4">
         <v>0</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5448,7 +4771,7 @@
       <c r="I33" s="4">
         <v>7</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="9">
         <v>244</v>
       </c>
     </row>
@@ -5480,7 +4803,7 @@
       <c r="I34" s="4">
         <v>0</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>35</v>
       </c>
     </row>
@@ -5512,7 +4835,7 @@
       <c r="I35" s="4">
         <v>0</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="9">
         <v>1531</v>
       </c>
     </row>
@@ -5544,7 +4867,7 @@
       <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>5</v>
       </c>
     </row>
@@ -5576,7 +4899,7 @@
       <c r="I37" s="4">
         <v>0</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="9">
         <v>271</v>
       </c>
     </row>
@@ -5608,7 +4931,7 @@
       <c r="I38" s="4">
         <v>0</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="9">
         <v>164</v>
       </c>
     </row>
@@ -5640,7 +4963,7 @@
       <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="9">
         <v>2521</v>
       </c>
     </row>
@@ -5672,7 +4995,7 @@
       <c r="I40" s="4">
         <v>0</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5704,7 +5027,7 @@
       <c r="I41" s="4">
         <v>4</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <v>5</v>
       </c>
     </row>
@@ -5736,7 +5059,7 @@
       <c r="I42" s="4">
         <v>0</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="9">
         <v>51</v>
       </c>
     </row>
@@ -5768,7 +5091,7 @@
       <c r="I43" s="4">
         <v>0</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="9">
         <v>1</v>
       </c>
     </row>
@@ -5800,7 +5123,7 @@
       <c r="I44" s="4">
         <v>0</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="9">
         <v>3</v>
       </c>
     </row>
@@ -5832,7 +5155,7 @@
       <c r="I45" s="4">
         <v>0</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5864,7 +5187,7 @@
       <c r="I46" s="4">
         <v>0</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="9">
         <v>2</v>
       </c>
     </row>
@@ -5896,7 +5219,7 @@
       <c r="I47" s="4">
         <v>0</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="9">
         <v>301</v>
       </c>
     </row>
@@ -5928,7 +5251,7 @@
       <c r="I48" s="4">
         <v>0</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="9">
         <v>557</v>
       </c>
     </row>
@@ -5960,7 +5283,7 @@
       <c r="I49" s="4">
         <v>0</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>281</v>
       </c>
     </row>
@@ -5992,7 +5315,7 @@
       <c r="I50" s="4">
         <v>0</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>463</v>
       </c>
     </row>
@@ -6024,7 +5347,7 @@
       <c r="I51" s="4">
         <v>2</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>376</v>
       </c>
     </row>
@@ -6056,7 +5379,7 @@
       <c r="I52" s="4">
         <v>0</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="9">
         <v>23</v>
       </c>
     </row>
@@ -6088,7 +5411,7 @@
       <c r="I53" s="4">
         <v>0</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <v>37</v>
       </c>
     </row>
@@ -6120,7 +5443,7 @@
       <c r="I54" s="4">
         <v>0</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="9">
         <v>36</v>
       </c>
     </row>
@@ -6152,7 +5475,7 @@
       <c r="I55" s="4">
         <v>0</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="9">
         <v>5536</v>
       </c>
     </row>
@@ -6184,7 +5507,7 @@
       <c r="I56" s="4">
         <v>0</v>
       </c>
-      <c r="J56" s="10">
+      <c r="J56" s="9">
         <v>31</v>
       </c>
     </row>
@@ -6216,7 +5539,7 @@
       <c r="I57" s="4">
         <v>1</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="9">
         <v>31</v>
       </c>
     </row>
@@ -6248,7 +5571,7 @@
       <c r="I58" s="4">
         <v>0</v>
       </c>
-      <c r="J58" s="10">
+      <c r="J58" s="9">
         <v>49</v>
       </c>
     </row>
@@ -6280,7 +5603,7 @@
       <c r="I59" s="4">
         <v>0</v>
       </c>
-      <c r="J59" s="10">
+      <c r="J59" s="9">
         <v>5</v>
       </c>
     </row>
@@ -6312,7 +5635,7 @@
       <c r="I60" s="4">
         <v>0</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="9">
         <v>7</v>
       </c>
     </row>
@@ -6344,7 +5667,7 @@
       <c r="I61" s="4">
         <v>0</v>
       </c>
-      <c r="J61" s="10">
+      <c r="J61" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6376,7 +5699,7 @@
       <c r="I62" s="4">
         <v>0</v>
       </c>
-      <c r="J62" s="10">
+      <c r="J62" s="9">
         <v>7</v>
       </c>
     </row>
@@ -6408,7 +5731,7 @@
       <c r="I63" s="4">
         <v>0</v>
       </c>
-      <c r="J63" s="10">
+      <c r="J63" s="9">
         <v>24</v>
       </c>
     </row>
@@ -6440,7 +5763,7 @@
       <c r="I64" s="4">
         <v>0</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="9">
         <v>6</v>
       </c>
     </row>
@@ -6472,7 +5795,7 @@
       <c r="I65" s="4">
         <v>0</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6504,7 +5827,7 @@
       <c r="I66" s="4">
         <v>0</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="9">
         <v>2</v>
       </c>
     </row>
@@ -6536,7 +5859,7 @@
       <c r="I67" s="4">
         <v>0</v>
       </c>
-      <c r="J67" s="10">
+      <c r="J67" s="9">
         <v>37</v>
       </c>
     </row>
@@ -6568,7 +5891,7 @@
       <c r="I68" s="4">
         <v>0</v>
       </c>
-      <c r="J68" s="10">
+      <c r="J68" s="9">
         <v>6</v>
       </c>
     </row>
@@ -6600,7 +5923,7 @@
       <c r="I69" s="4">
         <v>0</v>
       </c>
-      <c r="J69" s="10">
+      <c r="J69" s="9">
         <v>23</v>
       </c>
     </row>
@@ -6632,7 +5955,7 @@
       <c r="I70" s="4">
         <v>0</v>
       </c>
-      <c r="J70" s="10">
+      <c r="J70" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6664,7 +5987,7 @@
       <c r="I71" s="4">
         <v>1</v>
       </c>
-      <c r="J71" s="10">
+      <c r="J71" s="9">
         <v>1537</v>
       </c>
     </row>
@@ -6696,7 +6019,7 @@
       <c r="I72" s="4">
         <v>2</v>
       </c>
-      <c r="J72" s="10">
+      <c r="J72" s="9">
         <v>1110</v>
       </c>
     </row>
@@ -6728,7 +6051,7 @@
       <c r="I73" s="4">
         <v>0</v>
       </c>
-      <c r="J73" s="10">
+      <c r="J73" s="9">
         <v>42</v>
       </c>
     </row>
@@ -6760,7 +6083,7 @@
       <c r="I74" s="4">
         <v>0</v>
       </c>
-      <c r="J74" s="10">
+      <c r="J74" s="9">
         <v>111</v>
       </c>
     </row>
@@ -6792,7 +6115,7 @@
       <c r="I75" s="4">
         <v>0</v>
       </c>
-      <c r="J75" s="10">
+      <c r="J75" s="9">
         <v>31</v>
       </c>
     </row>
@@ -6824,7 +6147,7 @@
       <c r="I76" s="4">
         <v>0</v>
       </c>
-      <c r="J76" s="10">
+      <c r="J76" s="9">
         <v>8</v>
       </c>
     </row>
@@ -6856,7 +6179,7 @@
       <c r="I77" s="4">
         <v>0</v>
       </c>
-      <c r="J77" s="10">
+      <c r="J77" s="9">
         <v>2</v>
       </c>
     </row>
@@ -6888,7 +6211,7 @@
       <c r="I78" s="4">
         <v>0</v>
       </c>
-      <c r="J78" s="10">
+      <c r="J78" s="9">
         <v>1</v>
       </c>
     </row>
@@ -6920,7 +6243,7 @@
       <c r="I79" s="4">
         <v>0</v>
       </c>
-      <c r="J79" s="10">
+      <c r="J79" s="9">
         <v>3</v>
       </c>
     </row>
@@ -6952,7 +6275,7 @@
       <c r="I80" s="4">
         <v>0</v>
       </c>
-      <c r="J80" s="10">
+      <c r="J80" s="9">
         <v>3749</v>
       </c>
     </row>
@@ -6984,7 +6307,7 @@
       <c r="I81" s="4">
         <v>0</v>
       </c>
-      <c r="J81" s="10">
+      <c r="J81" s="9">
         <v>5</v>
       </c>
     </row>
@@ -7016,7 +6339,7 @@
       <c r="I82" s="4">
         <v>0</v>
       </c>
-      <c r="J82" s="10">
+      <c r="J82" s="9">
         <v>278</v>
       </c>
     </row>
@@ -7048,7 +6371,7 @@
       <c r="I83" s="4">
         <v>0</v>
       </c>
-      <c r="J83" s="10">
+      <c r="J83" s="9">
         <v>10</v>
       </c>
     </row>
@@ -7080,7 +6403,7 @@
       <c r="I84" s="4">
         <v>1</v>
       </c>
-      <c r="J84" s="10">
+      <c r="J84" s="9">
         <v>822</v>
       </c>
     </row>
@@ -7112,7 +6435,7 @@
       <c r="I85" s="4">
         <v>11</v>
       </c>
-      <c r="J85" s="10">
+      <c r="J85" s="9">
         <v>171</v>
       </c>
     </row>
@@ -7144,7 +6467,7 @@
       <c r="I86" s="4">
         <v>0</v>
       </c>
-      <c r="J86" s="10">
+      <c r="J86" s="9">
         <v>48</v>
       </c>
     </row>
@@ -7176,7 +6499,7 @@
       <c r="I87" s="4">
         <v>0</v>
       </c>
-      <c r="J87" s="10">
+      <c r="J87" s="9">
         <v>367</v>
       </c>
     </row>
@@ -7208,7 +6531,7 @@
       <c r="I88" s="4">
         <v>1</v>
       </c>
-      <c r="J88" s="10">
+      <c r="J88" s="9">
         <v>5160</v>
       </c>
     </row>
@@ -7240,7 +6563,7 @@
       <c r="I89" s="4">
         <v>0</v>
       </c>
-      <c r="J89" s="10">
+      <c r="J89" s="9">
         <v>8</v>
       </c>
     </row>
@@ -7272,7 +6595,7 @@
       <c r="I90" s="4">
         <v>0</v>
       </c>
-      <c r="J90" s="10">
+      <c r="J90" s="9">
         <v>36</v>
       </c>
     </row>
@@ -7304,7 +6627,7 @@
       <c r="I91" s="4">
         <v>0</v>
       </c>
-      <c r="J91" s="10">
+      <c r="J91" s="9">
         <v>81</v>
       </c>
     </row>
@@ -7336,7 +6659,7 @@
       <c r="I92" s="4">
         <v>0</v>
       </c>
-      <c r="J92" s="10">
+      <c r="J92" s="9">
         <v>1</v>
       </c>
     </row>
@@ -7368,7 +6691,7 @@
       <c r="I93" s="4">
         <v>0</v>
       </c>
-      <c r="J93" s="10">
+      <c r="J93" s="9">
         <v>458</v>
       </c>
     </row>
@@ -7400,7 +6723,7 @@
       <c r="I94" s="4">
         <v>0</v>
       </c>
-      <c r="J94" s="10">
+      <c r="J94" s="9">
         <v>727</v>
       </c>
     </row>
@@ -7432,7 +6755,7 @@
       <c r="I95" s="4">
         <v>0</v>
       </c>
-      <c r="J95" s="10">
+      <c r="J95" s="9">
         <v>9</v>
       </c>
     </row>
@@ -7464,7 +6787,7 @@
       <c r="I96" s="4">
         <v>0</v>
       </c>
-      <c r="J96" s="10">
+      <c r="J96" s="9">
         <v>24</v>
       </c>
     </row>
@@ -7496,7 +6819,7 @@
       <c r="I97" s="4">
         <v>40</v>
       </c>
-      <c r="J97" s="10">
+      <c r="J97" s="9">
         <v>419</v>
       </c>
     </row>
@@ -7528,7 +6851,7 @@
       <c r="I98" s="4">
         <v>16</v>
       </c>
-      <c r="J98" s="10">
+      <c r="J98" s="9">
         <v>60</v>
       </c>
     </row>
@@ -7560,7 +6883,7 @@
       <c r="I99" s="4">
         <v>0</v>
       </c>
-      <c r="J99" s="10">
+      <c r="J99" s="9">
         <v>3</v>
       </c>
     </row>
@@ -7592,7 +6915,7 @@
       <c r="I100" s="4">
         <v>4</v>
       </c>
-      <c r="J100" s="10">
+      <c r="J100" s="9">
         <v>20</v>
       </c>
     </row>
@@ -7624,7 +6947,7 @@
       <c r="I101" s="4">
         <v>0</v>
       </c>
-      <c r="J101" s="10">
+      <c r="J101" s="9">
         <v>1</v>
       </c>
     </row>
@@ -7656,7 +6979,7 @@
       <c r="I102" s="4">
         <v>0</v>
       </c>
-      <c r="J102" s="10">
+      <c r="J102" s="9">
         <v>1</v>
       </c>
     </row>
@@ -7688,7 +7011,7 @@
       <c r="I103" s="4">
         <v>0</v>
       </c>
-      <c r="J103" s="10">
+      <c r="J103" s="9">
         <v>1</v>
       </c>
     </row>
@@ -7720,7 +7043,7 @@
       <c r="I104" s="4">
         <v>0</v>
       </c>
-      <c r="J104" s="10">
+      <c r="J104" s="9">
         <v>5</v>
       </c>
     </row>
@@ -7752,7 +7075,7 @@
       <c r="I105" s="4">
         <v>0</v>
       </c>
-      <c r="J105" s="10">
+      <c r="J105" s="9">
         <v>7</v>
       </c>
     </row>
@@ -7784,7 +7107,7 @@
       <c r="I106" s="4">
         <v>0</v>
       </c>
-      <c r="J106" s="10">
+      <c r="J106" s="9">
         <v>357</v>
       </c>
     </row>
@@ -7816,7 +7139,7 @@
       <c r="I107" s="4">
         <v>0</v>
       </c>
-      <c r="J107" s="10">
+      <c r="J107" s="9">
         <v>114</v>
       </c>
     </row>
@@ -7848,7 +7171,7 @@
       <c r="I108" s="4">
         <v>0</v>
       </c>
-      <c r="J108" s="10">
+      <c r="J108" s="9">
         <v>1120</v>
       </c>
     </row>
@@ -7880,7 +7203,7 @@
       <c r="I109" s="4">
         <v>0</v>
       </c>
-      <c r="J109" s="10">
+      <c r="J109" s="9">
         <v>4</v>
       </c>
     </row>
@@ -7912,7 +7235,7 @@
       <c r="I110" s="4">
         <v>0</v>
       </c>
-      <c r="J110" s="10">
+      <c r="J110" s="9">
         <v>157</v>
       </c>
     </row>
@@ -7944,7 +7267,7 @@
       <c r="I111" s="4">
         <v>0</v>
       </c>
-      <c r="J111" s="10">
+      <c r="J111" s="9">
         <v>9</v>
       </c>
     </row>
@@ -7976,7 +7299,7 @@
       <c r="I112" s="4">
         <v>0</v>
       </c>
-      <c r="J112" s="10">
+      <c r="J112" s="9">
         <v>28375</v>
       </c>
     </row>
@@ -8008,7 +7331,7 @@
       <c r="I113" s="4">
         <v>0</v>
       </c>
-      <c r="J113" s="10">
+      <c r="J113" s="9">
         <v>23</v>
       </c>
     </row>
@@ -8040,7 +7363,7 @@
       <c r="I114" s="4">
         <v>12</v>
       </c>
-      <c r="J114" s="10">
+      <c r="J114" s="9">
         <v>146</v>
       </c>
     </row>
@@ -8077,17 +7400,17 @@
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -8101,19 +7424,19 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A119" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A119" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja4" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -8122,8 +7445,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
-        <v>195</v>
+      <c r="A1" s="8" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8144,249 +7467,161 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="12">
+      <c r="B3" s="23"/>
+      <c r="C3" s="11">
         <v>4866</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>4379</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>9245</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4">
-        <v>666</v>
-      </c>
-      <c r="D4" s="4">
-        <v>465</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1131</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="4">
-        <v>440</v>
-      </c>
-      <c r="D5" s="4">
-        <v>281</v>
-      </c>
-      <c r="E5" s="10">
-        <v>721</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="4">
-        <v>363</v>
-      </c>
-      <c r="D6" s="4">
-        <v>323</v>
-      </c>
-      <c r="E6" s="10">
-        <v>686</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="4">
-        <v>463</v>
-      </c>
-      <c r="D7" s="4">
-        <v>496</v>
-      </c>
-      <c r="E7" s="10">
-        <v>959</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="4">
-        <v>144</v>
-      </c>
-      <c r="D8" s="4">
-        <v>131</v>
-      </c>
-      <c r="E8" s="10">
-        <v>275</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
-      <c r="B9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="4">
-        <v>176</v>
-      </c>
-      <c r="D9" s="4">
-        <v>129</v>
-      </c>
-      <c r="E9" s="10">
-        <v>305</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1660</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1769</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3429</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="4">
-        <v>954</v>
-      </c>
-      <c r="D11" s="4">
-        <v>785</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1739</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="12">
+      <c r="A12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="11">
         <v>1520</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>1243</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>2763</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
-      <c r="B13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="4">
-        <v>354</v>
-      </c>
-      <c r="D13" s="4">
-        <v>243</v>
-      </c>
-      <c r="E13" s="10">
-        <v>597</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="4">
-        <v>53</v>
-      </c>
-      <c r="D14" s="4">
-        <v>53</v>
-      </c>
-      <c r="E14" s="10">
-        <v>106</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1113</v>
-      </c>
-      <c r="D15" s="4">
-        <v>947</v>
-      </c>
-      <c r="E15" s="10">
-        <v>2060</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="12">
+      <c r="A16" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="11">
         <v>493</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>508</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>1001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="12">
+      <c r="A17" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="11">
         <v>798</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>819</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>1617</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="12">
+      <c r="A18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="11">
         <v>1992</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>1993</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>3985</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="0.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4">
         <v>711</v>
@@ -8394,712 +7629,472 @@
       <c r="D19" s="4">
         <v>584</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>1295</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1281</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1409</v>
-      </c>
-      <c r="E20" s="10">
-        <v>2690</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="12">
+      <c r="A21" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="11">
         <v>195</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>223</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="12">
+      <c r="A22" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="11">
         <v>1166</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>1280</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>2446</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="4">
-        <v>136</v>
-      </c>
-      <c r="D23" s="4">
-        <v>145</v>
-      </c>
-      <c r="E23" s="10">
-        <v>281</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="4">
-        <v>132</v>
-      </c>
-      <c r="D24" s="4">
-        <v>149</v>
-      </c>
-      <c r="E24" s="10">
-        <v>281</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="4">
-        <v>156</v>
-      </c>
-      <c r="D25" s="4">
-        <v>171</v>
-      </c>
-      <c r="E25" s="10">
-        <v>327</v>
-      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="4">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4">
-        <v>37</v>
-      </c>
-      <c r="E26" s="10">
-        <v>71</v>
-      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1"/>
-      <c r="B27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="4">
-        <v>123</v>
-      </c>
-      <c r="D27" s="4">
-        <v>161</v>
-      </c>
-      <c r="E27" s="10">
-        <v>284</v>
-      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="B28" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="4">
-        <v>177</v>
-      </c>
-      <c r="D28" s="4">
-        <v>176</v>
-      </c>
-      <c r="E28" s="10">
-        <v>353</v>
-      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1"/>
-      <c r="B29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="4">
-        <v>57</v>
-      </c>
-      <c r="D29" s="4">
-        <v>81</v>
-      </c>
-      <c r="E29" s="10">
-        <v>138</v>
-      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1"/>
-      <c r="B30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C30" s="4">
-        <v>306</v>
-      </c>
-      <c r="D30" s="4">
-        <v>313</v>
-      </c>
-      <c r="E30" s="10">
-        <v>619</v>
-      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1"/>
-      <c r="B31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="4">
-        <v>45</v>
-      </c>
-      <c r="D31" s="4">
-        <v>47</v>
-      </c>
-      <c r="E31" s="10">
-        <v>92</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="12">
+      <c r="A32" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="11">
         <v>768</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>634</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>1402</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1"/>
-      <c r="B33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" s="4">
-        <v>261</v>
-      </c>
-      <c r="D33" s="4">
-        <v>137</v>
-      </c>
-      <c r="E33" s="10">
-        <v>398</v>
-      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1"/>
-      <c r="B34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="4">
-        <v>157</v>
-      </c>
-      <c r="D34" s="4">
-        <v>143</v>
-      </c>
-      <c r="E34" s="10">
-        <v>300</v>
-      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1"/>
-      <c r="B35" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="4">
-        <v>45</v>
-      </c>
-      <c r="D35" s="4">
-        <v>42</v>
-      </c>
-      <c r="E35" s="10">
-        <v>87</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1"/>
-      <c r="B36" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="4">
-        <v>115</v>
-      </c>
-      <c r="D36" s="4">
-        <v>110</v>
-      </c>
-      <c r="E36" s="10">
-        <v>225</v>
-      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1"/>
-      <c r="B37" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="4">
-        <v>190</v>
-      </c>
-      <c r="D37" s="4">
-        <v>202</v>
-      </c>
-      <c r="E37" s="10">
-        <v>392</v>
-      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="12">
+      <c r="A38" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="11">
         <v>5507</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>4108</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>9615</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1"/>
-      <c r="B39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4623</v>
-      </c>
-      <c r="D39" s="4">
-        <v>3372</v>
-      </c>
-      <c r="E39" s="10">
-        <v>7995</v>
-      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1"/>
-      <c r="B40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="4">
-        <v>357</v>
-      </c>
-      <c r="D40" s="4">
-        <v>315</v>
-      </c>
-      <c r="E40" s="10">
-        <v>672</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1"/>
-      <c r="B41" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="4">
-        <v>208</v>
-      </c>
-      <c r="D41" s="4">
-        <v>101</v>
-      </c>
-      <c r="E41" s="10">
-        <v>309</v>
-      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1"/>
-      <c r="B42" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="4">
-        <v>319</v>
-      </c>
-      <c r="D42" s="4">
-        <v>320</v>
-      </c>
-      <c r="E42" s="10">
-        <v>639</v>
-      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="12">
+      <c r="A43" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="11">
         <v>4676</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>4385</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>9061</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1"/>
-      <c r="B44" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="4">
-        <v>607</v>
-      </c>
-      <c r="D44" s="4">
-        <v>628</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1235</v>
-      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1"/>
-      <c r="B45" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="4">
-        <v>428</v>
-      </c>
-      <c r="D45" s="4">
-        <v>472</v>
-      </c>
-      <c r="E45" s="10">
-        <v>900</v>
-      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1"/>
-      <c r="B46" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="4">
-        <v>3641</v>
-      </c>
-      <c r="D46" s="4">
-        <v>3285</v>
-      </c>
-      <c r="E46" s="10">
-        <v>6926</v>
-      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="12">
+      <c r="A47" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="11">
         <v>295</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>359</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1"/>
-      <c r="B48" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="4">
-        <v>158</v>
-      </c>
-      <c r="D48" s="4">
-        <v>197</v>
-      </c>
-      <c r="E48" s="10">
-        <v>355</v>
-      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1"/>
-      <c r="B49" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C49" s="4">
-        <v>137</v>
-      </c>
-      <c r="D49" s="4">
-        <v>162</v>
-      </c>
-      <c r="E49" s="10">
-        <v>299</v>
-      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="9"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="12">
+      <c r="A50" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="11">
         <v>1699</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>2141</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>3840</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1"/>
-      <c r="B51" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="4">
-        <v>798</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1007</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1805</v>
-      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1"/>
-      <c r="B52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="4">
-        <v>149</v>
-      </c>
-      <c r="D52" s="4">
-        <v>164</v>
-      </c>
-      <c r="E52" s="10">
-        <v>313</v>
-      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="9"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1"/>
-      <c r="B53" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="4">
-        <v>203</v>
-      </c>
-      <c r="D53" s="4">
-        <v>317</v>
-      </c>
-      <c r="E53" s="10">
-        <v>520</v>
-      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="9"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1"/>
-      <c r="B54" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="4">
-        <v>549</v>
-      </c>
-      <c r="D54" s="4">
-        <v>653</v>
-      </c>
-      <c r="E54" s="10">
-        <v>1202</v>
-      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="9"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="12">
+      <c r="A55" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="11">
         <v>17939</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>15939</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>33878</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="12">
+      <c r="A56" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="11">
         <v>1487</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>981</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>2468</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="12">
+      <c r="A57" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="11">
         <v>476</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>496</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="12">
+      <c r="A58" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="11">
         <v>1589</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>1496</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>3085</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1"/>
-      <c r="B59" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" s="4">
-        <v>349</v>
-      </c>
-      <c r="D59" s="4">
-        <v>325</v>
-      </c>
-      <c r="E59" s="10">
-        <v>674</v>
-      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1"/>
-      <c r="B60" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="4">
-        <v>911</v>
-      </c>
-      <c r="D60" s="4">
-        <v>856</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1767</v>
-      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1"/>
-      <c r="B61" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="4">
-        <v>329</v>
-      </c>
-      <c r="D61" s="4">
-        <v>315</v>
-      </c>
-      <c r="E61" s="10">
-        <v>644</v>
-      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="12">
+      <c r="A62" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="11">
         <v>239</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>236</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="12">
+      <c r="A63" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="11">
         <v>200</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>85</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="12">
+      <c r="A64" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="11">
         <v>1114</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>307</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>1421</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="29"/>
+      <c r="A65" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="26"/>
       <c r="C65" s="2">
         <v>47019</v>
       </c>
       <c r="D65" s="2">
         <v>41612</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="2">
         <v>88631</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="8" t="s">
-        <v>196</v>
+      <c r="A66" s="7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A12:B12"/>
@@ -9112,25 +8107,17 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A68" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A68" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9143,8 +8130,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
-        <v>206</v>
+      <c r="A1" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9171,7 +8158,7 @@
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9185,7 +8172,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9199,7 +8186,7 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
     </row>
@@ -9213,13 +8200,13 @@
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -9227,7 +8214,7 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9241,7 +8228,7 @@
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9255,7 +8242,7 @@
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9269,13 +8256,13 @@
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B11" s="4">
         <v>11</v>
@@ -9283,7 +8270,7 @@
       <c r="C11" s="4">
         <v>13</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>24</v>
       </c>
     </row>
@@ -9297,7 +8284,7 @@
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9311,7 +8298,7 @@
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9325,13 +8312,13 @@
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -9339,7 +8326,7 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>2</v>
       </c>
     </row>
@@ -9353,13 +8340,13 @@
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -9367,7 +8354,7 @@
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9381,7 +8368,7 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>2</v>
       </c>
     </row>
@@ -9395,13 +8382,13 @@
       <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B20" s="4">
         <v>571</v>
@@ -9409,7 +8396,7 @@
       <c r="C20" s="4">
         <v>285</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>856</v>
       </c>
     </row>
@@ -9423,7 +8410,7 @@
       <c r="C21" s="4">
         <v>1</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9437,13 +8424,13 @@
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -9451,7 +8438,7 @@
       <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9465,7 +8452,7 @@
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9479,7 +8466,7 @@
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>1</v>
       </c>
     </row>
@@ -9493,13 +8480,13 @@
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
@@ -9507,7 +8494,7 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>2</v>
       </c>
     </row>
@@ -9526,21 +8513,21 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A30" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A94" workbookViewId="0">
@@ -9554,29 +8541,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>219</v>
+      <c r="A1" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="G2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="36"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="5" t="s">
         <v>124</v>
       </c>
@@ -9615,7 +8602,7 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9638,7 +8625,7 @@
       <c r="F5" s="4">
         <v>12</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9661,7 +8648,7 @@
       <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9684,7 +8671,7 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9707,7 +8694,7 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9730,7 +8717,7 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9753,7 +8740,7 @@
       <c r="F10" s="4">
         <v>213</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="4">
         <v>15</v>
       </c>
     </row>
@@ -9776,7 +8763,7 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9799,7 +8786,7 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9822,7 +8809,7 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9845,7 +8832,7 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9868,7 +8855,7 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9891,7 +8878,7 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9914,7 +8901,7 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9937,7 +8924,7 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="4">
         <v>0</v>
       </c>
     </row>
@@ -9960,7 +8947,7 @@
       <c r="F19" s="4">
         <v>3</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9983,7 +8970,7 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10006,7 +8993,7 @@
       <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10029,7 +9016,7 @@
       <c r="F22" s="4">
         <v>2</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10052,7 +9039,7 @@
       <c r="F23" s="4">
         <v>0</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10075,7 +9062,7 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10098,7 +9085,7 @@
       <c r="F25" s="4">
         <v>0</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10121,7 +9108,7 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10144,7 +9131,7 @@
       <c r="F27" s="4">
         <v>2</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="4">
         <v>2</v>
       </c>
     </row>
@@ -10167,7 +9154,7 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10190,7 +9177,7 @@
       <c r="F29" s="4">
         <v>74</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="4">
         <v>27</v>
       </c>
     </row>
@@ -10213,7 +9200,7 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10236,7 +9223,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="4">
         <v>2</v>
       </c>
     </row>
@@ -10259,7 +9246,7 @@
       <c r="F32" s="4">
         <v>9</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10282,7 +9269,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10305,7 +9292,7 @@
       <c r="F34" s="4">
         <v>6</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10328,7 +9315,7 @@
       <c r="F35" s="4">
         <v>0</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10351,7 +9338,7 @@
       <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10374,7 +9361,7 @@
       <c r="F37" s="4">
         <v>99</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10397,7 +9384,7 @@
       <c r="F38" s="4">
         <v>6</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10420,7 +9407,7 @@
       <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10443,7 +9430,7 @@
       <c r="F40" s="4">
         <v>0</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10466,7 +9453,7 @@
       <c r="F41" s="4">
         <v>0</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10489,7 +9476,7 @@
       <c r="F42" s="4">
         <v>0</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10512,7 +9499,7 @@
       <c r="F43" s="4">
         <v>0</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10535,7 +9522,7 @@
       <c r="F44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10558,7 +9545,7 @@
       <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10581,7 +9568,7 @@
       <c r="F46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10604,7 +9591,7 @@
       <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10627,7 +9614,7 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10650,7 +9637,7 @@
       <c r="F49" s="4">
         <v>4</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="4">
         <v>5</v>
       </c>
     </row>
@@ -10673,7 +9660,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10696,7 +9683,7 @@
       <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10719,7 +9706,7 @@
       <c r="F52" s="4">
         <v>2</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="4">
         <v>4</v>
       </c>
     </row>
@@ -10742,7 +9729,7 @@
       <c r="F53" s="4">
         <v>37</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="4">
         <v>18</v>
       </c>
     </row>
@@ -10765,13 +9752,13 @@
       <c r="F54" s="4">
         <v>2</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B55" s="4">
         <v>1</v>
@@ -10788,7 +9775,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10811,7 +9798,7 @@
       <c r="F56" s="4">
         <v>3</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10834,7 +9821,7 @@
       <c r="F57" s="4">
         <v>4</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="4">
         <v>3</v>
       </c>
     </row>
@@ -10857,13 +9844,13 @@
       <c r="F58" s="4">
         <v>0</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
@@ -10880,7 +9867,7 @@
       <c r="F59" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10903,7 +9890,7 @@
       <c r="F60" s="4">
         <v>1</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10926,7 +9913,7 @@
       <c r="F61" s="4">
         <v>0</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10949,7 +9936,7 @@
       <c r="F62" s="4">
         <v>0</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="4">
         <v>1</v>
       </c>
     </row>
@@ -10972,7 +9959,7 @@
       <c r="F63" s="4">
         <v>0</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="4">
         <v>0</v>
       </c>
     </row>
@@ -10995,7 +9982,7 @@
       <c r="F64" s="4">
         <v>0</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11018,7 +10005,7 @@
       <c r="F65" s="4">
         <v>0</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11041,7 +10028,7 @@
       <c r="F66" s="4">
         <v>1</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="4">
         <v>3</v>
       </c>
     </row>
@@ -11064,7 +10051,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11087,7 +10074,7 @@
       <c r="F68" s="4">
         <v>1</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11110,7 +10097,7 @@
       <c r="F69" s="4">
         <v>0</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11133,7 +10120,7 @@
       <c r="F70" s="4">
         <v>81</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11156,7 +10143,7 @@
       <c r="F71" s="4">
         <v>332</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="4">
         <v>30</v>
       </c>
     </row>
@@ -11179,7 +10166,7 @@
       <c r="F72" s="4">
         <v>8</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11202,7 +10189,7 @@
       <c r="F73" s="4">
         <v>2</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11225,7 +10212,7 @@
       <c r="F74" s="4">
         <v>0</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11248,7 +10235,7 @@
       <c r="F75" s="4">
         <v>0</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11271,7 +10258,7 @@
       <c r="F76" s="4">
         <v>0</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11294,7 +10281,7 @@
       <c r="F77" s="4">
         <v>0</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11317,7 +10304,7 @@
       <c r="F78" s="4">
         <v>0</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11340,7 +10327,7 @@
       <c r="F79" s="4">
         <v>8</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="4">
         <v>8</v>
       </c>
     </row>
@@ -11363,7 +10350,7 @@
       <c r="F80" s="4">
         <v>0</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11386,7 +10373,7 @@
       <c r="F81" s="4">
         <v>5</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11409,13 +10396,13 @@
       <c r="F82" s="4">
         <v>2</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B83" s="4">
         <v>1</v>
@@ -11432,13 +10419,13 @@
       <c r="F83" s="4">
         <v>0</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B84" s="4">
         <v>1</v>
@@ -11455,7 +10442,7 @@
       <c r="F84" s="4">
         <v>0</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11478,7 +10465,7 @@
       <c r="F85" s="4">
         <v>5</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11501,7 +10488,7 @@
       <c r="F86" s="4">
         <v>1</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11524,7 +10511,7 @@
       <c r="F87" s="4">
         <v>0</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11547,7 +10534,7 @@
       <c r="F88" s="4">
         <v>1</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11570,13 +10557,13 @@
       <c r="F89" s="4">
         <v>4</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B90" s="4">
         <v>1</v>
@@ -11593,13 +10580,13 @@
       <c r="F90" s="4">
         <v>0</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B91" s="4">
         <v>1</v>
@@ -11616,7 +10603,7 @@
       <c r="F91" s="4">
         <v>0</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11639,7 +10626,7 @@
       <c r="F92" s="4">
         <v>0</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11662,7 +10649,7 @@
       <c r="F93" s="4">
         <v>8</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="4">
         <v>10</v>
       </c>
     </row>
@@ -11685,13 +10672,13 @@
       <c r="F94" s="4">
         <v>11</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B95" s="4">
         <v>1</v>
@@ -11708,7 +10695,7 @@
       <c r="F95" s="4">
         <v>0</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G95" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11731,7 +10718,7 @@
       <c r="F96" s="4">
         <v>0</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11754,7 +10741,7 @@
       <c r="F97" s="4">
         <v>24</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G97" s="4">
         <v>3</v>
       </c>
     </row>
@@ -11777,7 +10764,7 @@
       <c r="F98" s="4">
         <v>0</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11800,7 +10787,7 @@
       <c r="F99" s="4">
         <v>0</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11823,7 +10810,7 @@
       <c r="F100" s="4">
         <v>0</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11846,7 +10833,7 @@
       <c r="F101" s="4">
         <v>0</v>
       </c>
-      <c r="G101" s="13">
+      <c r="G101" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11869,13 +10856,13 @@
       <c r="F102" s="4">
         <v>0</v>
       </c>
-      <c r="G102" s="13">
+      <c r="G102" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B103" s="4">
         <v>1</v>
@@ -11892,7 +10879,7 @@
       <c r="F103" s="4">
         <v>0</v>
       </c>
-      <c r="G103" s="13">
+      <c r="G103" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11915,7 +10902,7 @@
       <c r="F104" s="4">
         <v>1</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11938,7 +10925,7 @@
       <c r="F105" s="4">
         <v>0</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11961,7 +10948,7 @@
       <c r="F106" s="4">
         <v>0</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="4">
         <v>0</v>
       </c>
     </row>
@@ -11984,7 +10971,7 @@
       <c r="F107" s="4">
         <v>0</v>
       </c>
-      <c r="G107" s="13">
+      <c r="G107" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12007,13 +10994,13 @@
       <c r="F108" s="4">
         <v>0</v>
       </c>
-      <c r="G108" s="13">
+      <c r="G108" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B109" s="4">
         <v>1</v>
@@ -12030,7 +11017,7 @@
       <c r="F109" s="4">
         <v>0</v>
       </c>
-      <c r="G109" s="13">
+      <c r="G109" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12053,7 +11040,7 @@
       <c r="F110" s="4">
         <v>200</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="4">
         <v>2</v>
       </c>
     </row>
@@ -12076,7 +11063,7 @@
       <c r="F111" s="4">
         <v>37</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="4">
         <v>1</v>
       </c>
     </row>
@@ -12099,7 +11086,7 @@
       <c r="F112" s="4">
         <v>3</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G112" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12122,7 +11109,7 @@
       <c r="F113" s="4">
         <v>0</v>
       </c>
-      <c r="G113" s="13">
+      <c r="G113" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12145,7 +11132,7 @@
       <c r="F114" s="4">
         <v>0</v>
       </c>
-      <c r="G114" s="13">
+      <c r="G114" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12168,7 +11155,7 @@
       <c r="F115" s="4">
         <v>0</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12191,7 +11178,7 @@
       <c r="F116" s="4">
         <v>12</v>
       </c>
-      <c r="G116" s="13">
+      <c r="G116" s="4">
         <v>7</v>
       </c>
     </row>
@@ -12214,7 +11201,7 @@
       <c r="F117" s="4">
         <v>0</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12237,13 +11224,13 @@
       <c r="F118" s="4">
         <v>0</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G118" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B119" s="4">
         <v>1</v>
@@ -12260,7 +11247,7 @@
       <c r="F119" s="4">
         <v>0</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="4">
         <v>0</v>
       </c>
     </row>
@@ -12288,7 +11275,7 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -12300,15 +11287,15 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A122" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A122" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja7" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A94" workbookViewId="0">
@@ -12322,33 +11309,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
-        <v>227</v>
+      <c r="A1" s="8" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="I2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="36"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="5" t="s">
         <v>124</v>
       </c>
@@ -13739,7 +12726,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B51" s="4">
         <v>0</v>
@@ -14377,7 +13364,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -14406,7 +13393,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B74" s="4">
         <v>3</v>
@@ -14435,7 +13422,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -14609,7 +13596,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -14638,7 +13625,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
@@ -14928,7 +13915,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B92" s="4">
         <v>1</v>
@@ -15073,7 +14060,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="B97" s="4">
         <v>2</v>
@@ -15363,7 +14350,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="B107" s="4">
         <v>0</v>
@@ -15420,7 +14407,7 @@
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15433,15 +14420,15 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A110" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A110" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja8" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Hoja8"/>
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
@@ -15455,25 +14442,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
-        <v>233</v>
+      <c r="A1" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="34"/>
+      <c r="B2" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="36"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="5" t="s">
         <v>124</v>
       </c>
@@ -15557,7 +14544,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -15625,7 +14612,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -15727,7 +14714,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -15812,7 +14799,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B23" s="4">
         <v>0</v>
@@ -15829,7 +14816,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B24" s="4">
         <v>1145</v>
@@ -15863,7 +14850,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -15880,7 +14867,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -15897,7 +14884,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
@@ -15948,7 +14935,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -15965,7 +14952,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -16049,7 +15036,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16060,15 +15047,15 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A38" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A38" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja9" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16081,16 +15068,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>257</v>
+      <c r="A1" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -16103,7 +15090,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="B4" s="4">
         <v>55</v>
@@ -16111,7 +15098,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="B5" s="4">
         <v>568</v>
@@ -16119,7 +15106,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -16127,7 +15114,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -16135,7 +15122,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
@@ -16143,7 +15130,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4">
         <v>39</v>
@@ -16151,7 +15138,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -16159,7 +15146,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="B11" s="4">
         <v>16</v>
@@ -16175,7 +15162,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="B13" s="4">
         <v>83</v>
@@ -16183,7 +15170,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
@@ -16191,7 +15178,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -16199,7 +15186,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="B16" s="4">
         <v>5</v>
@@ -16207,7 +15194,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="B17" s="4">
         <v>69</v>
@@ -16215,7 +15202,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="B18" s="4">
         <v>28</v>
@@ -16223,7 +15210,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="B19" s="4">
         <v>81</v>
@@ -16231,7 +15218,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="B20" s="4">
         <v>15</v>
@@ -16239,7 +15226,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B21" s="4">
         <v>458</v>
@@ -16247,7 +15234,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
@@ -16255,7 +15242,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="B23" s="4">
         <v>44</v>
@@ -16263,7 +15250,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="B24" s="4">
         <v>268</v>
@@ -16271,7 +15258,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="B25" s="4">
         <v>4</v>
@@ -16279,7 +15266,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
@@ -16295,7 +15282,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="B28" s="4">
         <v>386</v>
@@ -16310,13 +15297,13 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A31" location="'Índice de tablas'!A1" display="Volver a índice"/>
+    <hyperlink ref="A31" location="'Índice de tablas'!A1" display="Volver a índice" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
